--- a/Jogos_do_Dia/2023-03-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>League</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -199,66 +196,45 @@
     <t>Sakaryaspor</t>
   </si>
   <si>
+    <t>Smouha SC</t>
+  </si>
+  <si>
+    <t>ENPPI</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
-    <t>Smouha SC</t>
-  </si>
-  <si>
     <t>Nueva Chicago</t>
   </si>
   <si>
-    <t>Carabobo</t>
-  </si>
-  <si>
-    <t>Estudiantes Mérida</t>
-  </si>
-  <si>
-    <t>Zamora</t>
-  </si>
-  <si>
-    <t>UCV</t>
-  </si>
-  <si>
-    <t>Portuguesa</t>
-  </si>
-  <si>
-    <t>Academia Puerto Cabello</t>
-  </si>
-  <si>
-    <t>Metropolitanos</t>
+    <t>Aldosivi</t>
+  </si>
+  <si>
+    <t>Chacarita Juniors</t>
+  </si>
+  <si>
+    <t>Club Atlético Mitre</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Deportivo Maipú</t>
+  </si>
+  <si>
+    <t>Villa Dálmine</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Atlético Rafaela</t>
   </si>
   <si>
-    <t>Chacarita Juniors</t>
-  </si>
-  <si>
-    <t>Villa Dálmine</t>
-  </si>
-  <si>
-    <t>Deportivo Maipú</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
-  </si>
-  <si>
-    <t>Club Atlético Mitre</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
@@ -310,64 +286,43 @@
     <t>Eyüpspor</t>
   </si>
   <si>
+    <t>Ismaily SC</t>
+  </si>
+  <si>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
     <t>Al Mokawloon</t>
   </si>
   <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
-    <t>Ismaily SC</t>
-  </si>
-  <si>
     <t>Defensores Unidos</t>
   </si>
   <si>
-    <t>Monagas</t>
-  </si>
-  <si>
-    <t>Hermanos Colmenares</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
-    <t>Angostura</t>
-  </si>
-  <si>
-    <t>Deportivo Táchira</t>
-  </si>
-  <si>
-    <t>Deportivo La Guaira</t>
-  </si>
-  <si>
-    <t>Rayo Zuliano</t>
+    <t>Tristán Suárez</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Racing Córdoba</t>
+  </si>
+  <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
+    <t>Ferro Carril Oeste</t>
+  </si>
+  <si>
+    <t>Gimnasia Jujuy</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Gimnasia Jujuy</t>
-  </si>
-  <si>
-    <t>Ferro Carril Oeste</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Vélez Sarsfield</t>
@@ -741,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH38"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,58 +817,58 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -946,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -966,58 +921,58 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F3">
-        <v>3.14</v>
+        <v>2.45</v>
       </c>
       <c r="G3">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H3">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V3">
         <v>1.86</v>
@@ -1047,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1070,58 +1025,58 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F4">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G4">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="H4">
-        <v>5.28</v>
+        <v>5.8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M4">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V4">
         <v>2.44</v>
@@ -1154,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1174,58 +1129,58 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
         <v>2.33</v>
@@ -1258,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1278,19 +1233,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F6">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="G6">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="H6">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="I6">
         <v>1.1</v>
@@ -1305,10 +1260,10 @@
         <v>2.62</v>
       </c>
       <c r="M6">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1382,10 +1337,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>3.07</v>
@@ -1486,10 +1441,10 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>1.86</v>
@@ -1564,13 +1519,13 @@
         <v>3.85</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE8">
         <v>1.68</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1590,58 +1545,58 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V9">
         <v>1.45</v>
@@ -1694,58 +1649,58 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V10">
         <v>0.73</v>
@@ -1798,58 +1753,58 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V11">
         <v>1.64</v>
@@ -1902,58 +1857,58 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V12">
         <v>1.27</v>
@@ -2006,58 +1961,58 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="G13">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="M13">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="N13">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V13">
         <v>1.8</v>
@@ -2110,19 +2065,19 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H14">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I14">
         <v>1.05</v>
@@ -2140,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="N14">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
         <v>1.34</v>
@@ -2188,10 +2143,10 @@
         <v>2.1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF14">
         <v>1.68</v>
@@ -2208,103 +2163,103 @@
         <v>42</v>
       </c>
       <c r="B15" s="2">
-        <v>45015.63541666666</v>
+        <v>45015.67708333334</v>
       </c>
       <c r="C15">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="G15">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I15">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="L15">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="O15">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="P15">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="Q15">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R15">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S15">
         <v>1.25</v>
       </c>
       <c r="T15">
+        <v>1.38</v>
+      </c>
+      <c r="U15">
+        <v>1.44</v>
+      </c>
+      <c r="V15">
+        <v>0.91</v>
+      </c>
+      <c r="W15">
+        <v>0.9</v>
+      </c>
+      <c r="X15">
+        <v>1.45</v>
+      </c>
+      <c r="Y15">
         <v>1.35</v>
       </c>
-      <c r="U15">
-        <v>1.57</v>
-      </c>
-      <c r="V15">
-        <v>1.33</v>
-      </c>
-      <c r="W15">
-        <v>1.36</v>
-      </c>
-      <c r="X15">
-        <v>1.58</v>
-      </c>
-      <c r="Y15">
-        <v>1.13</v>
-      </c>
       <c r="Z15">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="AA15">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AB15">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AC15">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="AD15">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AE15">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AF15">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="AG15">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AH15">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2312,64 +2267,64 @@
         <v>42</v>
       </c>
       <c r="B16" s="2">
-        <v>45015.63541666666</v>
+        <v>45015.67708333334</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V16">
         <v>0.5</v>
@@ -2399,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2416,103 +2371,103 @@
         <v>42</v>
       </c>
       <c r="B17" s="2">
-        <v>45015.63541666666</v>
+        <v>45015.67708333334</v>
       </c>
       <c r="C17">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F17">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="G17">
         <v>2.6</v>
       </c>
       <c r="H17">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="I17">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="L17">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="M17">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="P17">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="Q17">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R17">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="S17">
         <v>1.25</v>
       </c>
       <c r="T17">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="U17">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V17">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="W17">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="X17">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="Y17">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="Z17">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2526,10 +2481,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2621,19 +2576,19 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2684,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
         <v>1.33</v>
       </c>
-      <c r="X19">
-        <v>1.78</v>
-      </c>
       <c r="Y19">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="Z19">
-        <v>3.09</v>
+        <v>2.83</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2725,19 +2680,19 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2788,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="W20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Y20">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="Z20">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2829,19 +2784,19 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2892,19 +2847,19 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="Y21">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="Z21">
-        <v>3.55</v>
+        <v>2.86</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2933,19 +2888,19 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2996,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="W22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="Y22">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Z22">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -3037,19 +2992,19 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3100,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Y23">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Z23">
-        <v>3.33</v>
+        <v>2.95</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -3141,19 +3096,19 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3204,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="W24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="Y24">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="Z24">
-        <v>3.73</v>
+        <v>3.12</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -3245,19 +3200,19 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
         <v>45015.79166666666</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3308,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="W25">
         <v>1</v>
       </c>
       <c r="X25">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="Y25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Z25">
-        <v>2.68</v>
+        <v>2.79</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -3358,10 +3313,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3412,19 +3367,19 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="X26">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="Y26">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="Z26">
-        <v>2.97</v>
+        <v>2.52</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3462,10 +3417,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3516,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="Y27">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="Z27">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -3557,132 +3512,132 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>45015.79166666666</v>
+        <v>45015.83333333334</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V28">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="X28">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="Y28">
-        <v>1.25</v>
+        <v>0.99</v>
       </c>
       <c r="Z28">
-        <v>2.79</v>
+        <v>2.41</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>45015.79166666666</v>
+        <v>45015.83333333334</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3697,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3724,19 +3679,19 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="X29">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="Y29">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="Z29">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -3765,28 +3720,28 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>45015.79166666666</v>
+        <v>45015.875</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3795,52 +3750,52 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V30">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Y30">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Z30">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -3869,28 +3824,28 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>45015.79166666666</v>
+        <v>45015.875</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3899,16 +3854,16 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -3932,19 +3887,19 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="Y31">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="Z31">
-        <v>2.95</v>
+        <v>3.13</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3968,734 +3923,6 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45015.79166666666</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>1.41</v>
-      </c>
-      <c r="Y32">
-        <v>1.45</v>
-      </c>
-      <c r="Z32">
-        <v>2.86</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45015.79166666666</v>
-      </c>
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>1.5</v>
-      </c>
-      <c r="W33">
-        <v>1.5</v>
-      </c>
-      <c r="X33">
-        <v>1.33</v>
-      </c>
-      <c r="Y33">
-        <v>1.5</v>
-      </c>
-      <c r="Z33">
-        <v>2.83</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45015.79166666666</v>
-      </c>
-      <c r="C34">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0.67</v>
-      </c>
-      <c r="X34">
-        <v>1.32</v>
-      </c>
-      <c r="Y34">
-        <v>1.2</v>
-      </c>
-      <c r="Z34">
-        <v>2.52</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45015.83333333334</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35">
-        <v>2.45</v>
-      </c>
-      <c r="G35">
-        <v>2.87</v>
-      </c>
-      <c r="H35">
-        <v>2.75</v>
-      </c>
-      <c r="I35">
-        <v>1.08</v>
-      </c>
-      <c r="J35">
-        <v>6.5</v>
-      </c>
-      <c r="K35">
-        <v>1.43</v>
-      </c>
-      <c r="L35">
-        <v>2.62</v>
-      </c>
-      <c r="M35">
-        <v>2.3</v>
-      </c>
-      <c r="N35">
-        <v>1.53</v>
-      </c>
-      <c r="O35">
-        <v>1.52</v>
-      </c>
-      <c r="P35">
-        <v>2.37</v>
-      </c>
-      <c r="Q35">
-        <v>1.95</v>
-      </c>
-      <c r="R35">
-        <v>1.72</v>
-      </c>
-      <c r="S35">
-        <v>1.38</v>
-      </c>
-      <c r="T35">
-        <v>1.33</v>
-      </c>
-      <c r="U35">
-        <v>1.51</v>
-      </c>
-      <c r="V35">
-        <v>1.75</v>
-      </c>
-      <c r="W35">
-        <v>1.33</v>
-      </c>
-      <c r="X35">
-        <v>1.42</v>
-      </c>
-      <c r="Y35">
-        <v>0.99</v>
-      </c>
-      <c r="Z35">
-        <v>2.41</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45015.83333333334</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36">
-        <v>1.29</v>
-      </c>
-      <c r="G36">
-        <v>4.75</v>
-      </c>
-      <c r="H36">
-        <v>7.4</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1.63</v>
-      </c>
-      <c r="N36">
-        <v>2.02</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>2.5</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>1.81</v>
-      </c>
-      <c r="Y36">
-        <v>1.18</v>
-      </c>
-      <c r="Z36">
-        <v>2.99</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45015.875</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0.33</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1.76</v>
-      </c>
-      <c r="Y37">
-        <v>1.46</v>
-      </c>
-      <c r="Z37">
-        <v>3.22</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45015.875</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1.29</v>
-      </c>
-      <c r="Y38">
-        <v>1.84</v>
-      </c>
-      <c r="Z38">
-        <v>3.13</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
         <v>0</v>
       </c>
     </row>
